--- a/geomx-ngs/latest/geomx-ngs.xlsx
+++ b/geomx-ngs/latest/geomx-ngs.xlsx
@@ -291,6 +291,12 @@
     <t>dataset_type</t>
   </si>
   <si>
+    <t>HiFi-Slide</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
+  </si>
+  <si>
     <t>SNARE-seq2</t>
   </si>
   <si>
@@ -411,12 +417,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
-    <t>HiFi-Slides</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -1035,7 +1035,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-22T10:40:02-08:00</t>
+    <t>2023-11-24T09:48:39-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="s">
         <v>247</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>250</v>

--- a/geomx-ngs/latest/geomx-ngs.xlsx
+++ b/geomx-ngs/latest/geomx-ngs.xlsx
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="259">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -612,6 +612,12 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Evident Scientific (Olympus)</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024782</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -735,6 +741,12 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>VS200 Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024783</t>
+  </si>
+  <si>
     <t>Axio Observer 5</t>
   </si>
   <si>
@@ -984,18 +996,18 @@
     <t>roi_segmentation_strategy</t>
   </si>
   <si>
-    <t>Automated</t>
+    <t>Manual segmentation</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000305</t>
+  </si>
+  <si>
+    <t>Automated segmentation</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000304</t>
   </si>
   <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000305</t>
-  </si>
-  <si>
     <t>anatomical_structure_label</t>
   </si>
   <si>
@@ -1035,7 +1047,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-24T09:48:39-08:00</t>
+    <t>2024-01-05T14:05:20-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1210,88 +1222,88 @@
         <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2">
@@ -1299,7 +1311,7 @@
         <v>34</v>
       </c>
       <c r="AI2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -1314,10 +1326,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$39</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1392,10 +1404,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1413,10 +1425,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1457,18 +1469,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -1515,16 +1527,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2">
@@ -1532,13 +1544,13 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -1949,7 +1961,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2067,6 +2079,14 @@
         <v>124</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2074,7 +2094,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2082,306 +2102,314 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2399,42 +2427,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2452,26 +2480,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2489,18 +2517,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/geomx-ngs/latest/geomx-ngs.xlsx
+++ b/geomx-ngs/latest/geomx-ngs.xlsx
@@ -256,13 +256,16 @@
     </comment>
     <comment ref="AH1" authorId="1">
       <text>
-        <t>(Required) A semicolon separated list of shared files to be included in the
-dataset. The full file path should be used (e.g.,
-"./shared/raw/3146_LabWorksheet.txt; ./shared/raw/3146_GNP_config.ini"). After
-ingest, these files will be copied to the respective locations within the
-dataset directory tree. For example, "./shared/raw/3146_LabWorksheet.txt" will
-be copied to "./raw/3146_LabWorksheet.txt". This field is used for internal
-HuBMAP processing.</t>
+        <t>(Required) A semicolon separated list of non-shared files to be included in the
+dataset. The path assumes the files are located in the "TOP/non-global/"
+directory. For example, for the file is
+TOP/non-global/lab_processed/images/1-tissue-boundary.geojson the value of this
+field would be "./lab_processed/images/1-tissue-boundary.geojson". After ingest,
+these files will be copied to the appropriate locations within the respective
+dataset directory tree. This field is used for internal HuBMAP processing.
+Examples for GeoMx and PhenoCycler are provided in the File Locations
+documentation:
+https://docs.google.com/document/d/1n2McSs9geA9Eli4QWQaB3c9R3wo5d5U1Xd57DWQfN5Q/edit#heading=h.1u82i4axggee</t>
       </text>
     </comment>
     <comment ref="AI1" authorId="1">
@@ -1026,7 +1029,7 @@
     <t>is_technical_replicate</t>
   </si>
   <si>
-    <t>shared_files</t>
+    <t>non_global_files</t>
   </si>
   <si>
     <t>metadata_schema_id</t>
@@ -1047,7 +1050,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-01-05T14:05:20-08:00</t>
+    <t>2024-01-09T13:34:44-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1195,7 +1198,7 @@
     <col min="31" max="31" style="32" width="17.0546875" customWidth="true" bestFit="true"/>
     <col min="32" max="32" style="33" width="11.30078125" customWidth="true" bestFit="true"/>
     <col min="33" max="33" style="34" width="19.91796875" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" style="35" width="11.66015625" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" style="35" width="15.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" style="36" width="19.61328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/geomx-ngs/latest/geomx-ngs.xlsx
+++ b/geomx-ngs/latest/geomx-ngs.xlsx
@@ -280,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="295">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -390,6 +390,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
   </si>
   <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -495,6 +501,12 @@
     <t>analyte_class</t>
   </si>
   <si>
+    <t>DNA + RNA</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -573,6 +585,18 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
@@ -603,6 +627,12 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_000004</t>
+  </si>
+  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -615,6 +645,12 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
     <t>Evident Scientific (Olympus)</t>
   </si>
   <si>
@@ -651,12 +687,24 @@
     <t>https://identifiers.org/RRID:SCR_023609</t>
   </si>
   <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
     <t>Illumina</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_010233</t>
   </si>
   <si>
+    <t>Motic</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024856</t>
+  </si>
+  <si>
     <t>Ionpath</t>
   </si>
   <si>
@@ -684,6 +732,132 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
+    <t>EVOS M7000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025070</t>
+  </si>
+  <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024448</t>
+  </si>
+  <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
+    <t>Q Exactive UHMR</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020571</t>
+  </si>
+  <si>
+    <t>Q Exactive</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020565</t>
+  </si>
+  <si>
+    <t>Zyla 4.2 sCMOS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023610</t>
+  </si>
+  <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
+    <t>QTRAP 5500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020517</t>
+  </si>
+  <si>
+    <t>BZ-X800</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023617</t>
+  </si>
+  <si>
+    <t>NextSeq 500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_014983</t>
+  </si>
+  <si>
+    <t>NanoZoomer S360</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023761</t>
+  </si>
+  <si>
+    <t>Hyperion Imaging System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023195</t>
+  </si>
+  <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
+    <t>NextSeq 550</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016381</t>
+  </si>
+  <si>
+    <t>Digital Spatial Profiler</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021660</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
@@ -696,28 +870,28 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
-    <t>NovaSeq X</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024569</t>
-  </si>
-  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
-    <t>NanoZoomer 2.0-HT</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021658</t>
-  </si>
-  <si>
-    <t>Lightsheet 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024448</t>
+    <t>PhenoImager Fusion</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023274</t>
+  </si>
+  <si>
+    <t>DM6 B</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024857</t>
+  </si>
+  <si>
+    <t>Phenocycler-Fusion 2.0</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023773</t>
   </si>
   <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
@@ -732,18 +906,18 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
-  </si>
-  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>TissueScope LE Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024995</t>
+  </si>
+  <si>
     <t>VS200 Slide Scanner</t>
   </si>
   <si>
@@ -774,12 +948,6 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
-    <t>Q Exactive UHMR</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020571</t>
-  </si>
-  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -792,34 +960,16 @@
     <t>https://identifiers.org/RRID:SCR_016387</t>
   </si>
   <si>
-    <t>Q Exactive</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020565</t>
-  </si>
-  <si>
-    <t>Zyla 4.2 sCMOS</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023610</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>QTRAP 5500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020517</t>
-  </si>
-  <si>
-    <t>BZ-X800</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023617</t>
+    <t>Aperio AT2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021256</t>
   </si>
   <si>
     <t>MIBIscope</t>
@@ -828,18 +978,6 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
-    <t>NextSeq 500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_014983</t>
-  </si>
-  <si>
-    <t>NanoZoomer S360</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023761</t>
-  </si>
-  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -852,36 +990,6 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
-    <t>Hyperion Imaging System</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023195</t>
-  </si>
-  <si>
-    <t>NovaSeq X Plus</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024568</t>
-  </si>
-  <si>
-    <t>NanoZoomer-SQ</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023763</t>
-  </si>
-  <si>
-    <t>NextSeq 550</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016381</t>
-  </si>
-  <si>
-    <t>Digital Spatial Profiler</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021660</t>
-  </si>
-  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1050,7 +1158,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-01-09T13:34:44-08:00</t>
+    <t>2024-03-28T07:39:27-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1165,41 +1273,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="16.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="12.28515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="12.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="10.8984375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="28.46484375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="27.87109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="47.64453125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="18.53125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="17.37109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="7.8125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="19.44140625" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="36.68359375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="35.25" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="34.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="24.6328125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" style="24" width="32.2265625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" style="25" width="31.0703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" style="26" width="8.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" style="27" width="29.17578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" style="28" width="24.62109375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" style="29" width="24.86328125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" style="30" width="22.30078125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" style="31" width="19.6171875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" style="32" width="17.0546875" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" style="33" width="11.30078125" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" style="34" width="19.91796875" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" style="35" width="15.46484375" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" style="36" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="14.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="10.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="9.40234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="24.5546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="24.0390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="24.63671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="23.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="41.1015625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="40.1015625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="14.5859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="8.46484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="15.984375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="6.7421875" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="16.76953125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="31.64453125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="30.40625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="29.40625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="21.25" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" style="24" width="27.80078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" style="25" width="26.80078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" style="26" width="7.4296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" style="27" width="25.16796875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" style="28" width="21.23828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" style="29" width="21.44921875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" style="30" width="19.23828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" style="31" width="16.921875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" style="32" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" style="33" width="9.74609375" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" style="34" width="17.18359375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" style="35" width="13.33984375" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" style="36" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1216,123 +1324,123 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>250</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="AI2" t="s">
-        <v>251</v>
+      <c r="AI2" t="s" s="36">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$33</formula1>
+      <formula1>'dataset_type'!$A$1:$A$34</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$11</formula1>
+      <formula1>'analyte_class'!$A$1:$A$12</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$15</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$21</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$39</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$49</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1346,7 +1454,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
+      <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -1368,7 +1476,7 @@
       <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="U2:U1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'target_retrieval_incubation_time_unit'!$A$1:$A$1</formula1>
+      <formula1>'target_retrieval_incubation_tim'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="V2:V1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -1379,7 +1487,7 @@
       <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="X2:X1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'proteinasek_incubation_time_unit'!$A$1:$A$1</formula1>
+      <formula1>'proteinasek_incubation_time_uni'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Z2:Z1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_roi_segmentation_performed'!$A$1:$A$2</formula1>
@@ -1406,11 +1514,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" t="s">
-        <v>217</v>
+      <c r="A1" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -1427,11 +1535,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" t="s">
-        <v>217</v>
+      <c r="A1" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -1448,13 +1556,13 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>94</v>
+      <c r="A1" t="s" s="0">
+        <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>95</v>
+      <c r="A2" t="s" s="0">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1471,19 +1579,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" t="s">
-        <v>240</v>
+      <c r="A1" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>276</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" t="s">
-        <v>242</v>
+      <c r="A2" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -1500,13 +1608,13 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>94</v>
+      <c r="A1" t="s" s="0">
+        <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>95</v>
+      <c r="A2" t="s" s="0">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1522,38 +1630,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.9921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="80.82421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.91796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="69.72265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D1" t="s">
-        <v>257</v>
+      <c r="A1" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>293</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" t="s">
-        <v>258</v>
+      <c r="B2" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -1563,274 +1671,282 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>69</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1840,98 +1956,106 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" t="s">
-        <v>72</v>
+      <c r="A1" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>74</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
+      <c r="A2" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
+      <c r="A3" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
+      <c r="A4" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>80</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
+      <c r="A5" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>82</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" t="s">
-        <v>82</v>
+      <c r="A6" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
+      <c r="A7" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>86</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" t="s">
-        <v>86</v>
+      <c r="A8" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>88</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
+      <c r="A9" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>90</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
+      <c r="A10" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>92</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" t="s">
-        <v>92</v>
+      <c r="A11" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1948,13 +2072,13 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>94</v>
+      <c r="A1" t="s" s="0">
+        <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>95</v>
+      <c r="A2" t="s" s="0">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1964,130 +2088,178 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" t="s">
-        <v>98</v>
+      <c r="A1" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>102</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" t="s">
-        <v>100</v>
+      <c r="A2" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>104</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
+      <c r="A3" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
+      <c r="A4" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>108</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" t="s">
-        <v>106</v>
+      <c r="A5" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>110</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" t="s">
-        <v>108</v>
+      <c r="A6" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" t="s">
-        <v>110</v>
+      <c r="A7" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>114</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" t="s">
-        <v>112</v>
+      <c r="A8" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>116</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" t="s">
-        <v>114</v>
+      <c r="A9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>118</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" t="s">
-        <v>116</v>
+      <c r="A10" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>120</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" t="s">
-        <v>118</v>
+      <c r="A11" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>122</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" t="s">
-        <v>120</v>
+      <c r="A12" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>124</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" t="s">
-        <v>122</v>
+      <c r="A13" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>126</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" t="s">
-        <v>124</v>
+      <c r="A14" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>128</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" t="s">
-        <v>126</v>
+      <c r="A15" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2097,322 +2269,402 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" t="s">
-        <v>129</v>
+      <c r="A1" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" t="s">
-        <v>131</v>
+      <c r="A2" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>147</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" t="s">
-        <v>133</v>
+      <c r="A3" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>149</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" t="s">
-        <v>135</v>
+      <c r="A4" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>151</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" t="s">
-        <v>137</v>
+      <c r="A5" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>153</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" t="s">
-        <v>139</v>
+      <c r="A6" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" t="s">
-        <v>141</v>
+      <c r="A7" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>157</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" t="s">
-        <v>143</v>
+      <c r="A8" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" t="s">
-        <v>145</v>
+      <c r="A9" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>161</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" t="s">
-        <v>147</v>
+      <c r="A10" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>163</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" t="s">
-        <v>149</v>
+      <c r="A11" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>165</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" t="s">
-        <v>151</v>
+      <c r="A12" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>167</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" t="s">
-        <v>153</v>
+      <c r="A13" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>169</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" t="s">
-        <v>155</v>
+      <c r="A14" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>171</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" t="s">
-        <v>157</v>
+      <c r="A15" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>173</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" t="s">
-        <v>159</v>
+      <c r="A16" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>175</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" t="s">
-        <v>161</v>
+      <c r="A17" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>177</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" t="s">
-        <v>163</v>
+      <c r="A18" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>179</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" t="s">
-        <v>165</v>
+      <c r="A19" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>181</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" t="s">
-        <v>167</v>
+      <c r="A20" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>183</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" t="s">
-        <v>169</v>
+      <c r="A21" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>185</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" t="s">
-        <v>171</v>
+      <c r="A22" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>187</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B23" t="s">
-        <v>173</v>
+      <c r="A23" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>189</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24" t="s">
-        <v>175</v>
+      <c r="A24" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>191</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" t="s">
-        <v>177</v>
+      <c r="A25" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>193</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26" t="s">
-        <v>179</v>
+      <c r="A26" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>195</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" t="s">
-        <v>181</v>
+      <c r="A27" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>197</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" t="s">
-        <v>183</v>
+      <c r="A28" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>199</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" t="s">
-        <v>185</v>
+      <c r="A29" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>201</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" t="s">
-        <v>187</v>
+      <c r="A30" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>203</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" t="s">
-        <v>189</v>
+      <c r="A31" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" t="s">
-        <v>191</v>
+      <c r="A32" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" t="s">
-        <v>193</v>
+      <c r="A33" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>209</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34" t="s">
-        <v>195</v>
+      <c r="A34" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" t="s">
-        <v>197</v>
+      <c r="A35" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>213</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>198</v>
-      </c>
-      <c r="B36" t="s">
-        <v>199</v>
+      <c r="A36" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>215</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>200</v>
-      </c>
-      <c r="B37" t="s">
-        <v>201</v>
+      <c r="A37" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>217</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>202</v>
-      </c>
-      <c r="B38" t="s">
-        <v>203</v>
+      <c r="A38" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>219</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
-        <v>204</v>
-      </c>
-      <c r="B39" t="s">
-        <v>205</v>
+      <c r="A39" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2429,43 +2681,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" t="s">
-        <v>209</v>
+      <c r="A1" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" t="s">
-        <v>211</v>
+      <c r="A2" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" t="s">
-        <v>213</v>
+      <c r="A3" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>249</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" t="s">
-        <v>215</v>
+      <c r="A4" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>251</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" t="s">
-        <v>217</v>
+      <c r="A5" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2482,27 +2734,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" t="s">
-        <v>211</v>
+      <c r="A1" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" t="s">
-        <v>213</v>
+      <c r="A2" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>249</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" t="s">
-        <v>215</v>
+      <c r="A3" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2519,19 +2771,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" t="s">
-        <v>225</v>
+      <c r="A1" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>261</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" t="s">
-        <v>227</v>
+      <c r="A2" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/geomx-ngs/latest/geomx-ngs.xlsx
+++ b/geomx-ngs/latest/geomx-ngs.xlsx
@@ -280,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="301">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -645,6 +645,12 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
     <t>Akoya Biosciences</t>
   </si>
   <si>
@@ -864,6 +870,12 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
+    <t>BZ-X810</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025160</t>
+  </si>
+  <si>
     <t>Axio Observer 7</t>
   </si>
   <si>
@@ -894,6 +906,12 @@
     <t>https://identifiers.org/RRID:SCR_023773</t>
   </si>
   <si>
+    <t>Aperio CS2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025111</t>
+  </si>
+  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -1158,7 +1176,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-28T07:39:27-07:00</t>
+    <t>2024-04-01T14:52:48-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1333,88 +1351,88 @@
         <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2">
@@ -1422,7 +1440,7 @@
         <v>34</v>
       </c>
       <c r="AI2" t="s" s="36">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -1437,10 +1455,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$21</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$49</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1515,10 +1533,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1536,10 +1554,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1580,18 +1598,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -1638,16 +1656,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2">
@@ -1655,13 +1673,13 @@
         <v>34</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2088,7 +2106,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2262,6 +2280,14 @@
         <v>142</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2269,7 +2295,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2277,394 +2303,410 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2682,42 +2724,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2735,26 +2777,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2772,18 +2814,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/geomx-ngs/latest/geomx-ngs.xlsx
+++ b/geomx-ngs/latest/geomx-ngs.xlsx
@@ -280,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="313">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -342,6 +342,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
     <t>Visium (with probes)</t>
   </si>
   <si>
@@ -438,6 +444,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000384</t>
+  </si>
+  <si>
     <t>RNAseq</t>
   </si>
   <si>
@@ -519,22 +531,52 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
   </si>
   <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
+  </si>
+  <si>
+    <t>Metabolite</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+  </si>
+  <si>
+    <t>Unsaturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
+  </si>
+  <si>
+    <t>Saturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
+  </si>
+  <si>
+    <t>Lipid</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_51217</t>
   </si>
   <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
-  </si>
-  <si>
-    <t>Metabolite</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+    <t>Collagen</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16447</t>
   </si>
   <si>
     <t>DNA</t>
@@ -561,27 +603,15 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
   </si>
   <si>
-    <t>Lipid</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
@@ -630,7 +660,7 @@
     <t>GE Healthcare</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_000004</t>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
   </si>
   <si>
     <t>Sciex</t>
@@ -738,6 +768,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+  </si>
+  <si>
     <t>MoticEasyScan One</t>
   </si>
   <si>
@@ -1080,18 +1116,18 @@
     <t>mapped_area_unit</t>
   </si>
   <si>
+    <t>mm^2</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000082</t>
+  </si>
+  <si>
     <t>um^2</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/UO_0010001</t>
   </si>
   <si>
-    <t>mm^2</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000082</t>
-  </si>
-  <si>
     <t>slide_id</t>
   </si>
   <si>
@@ -1176,7 +1212,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-01T14:52:48-07:00</t>
+    <t>2024-08-03T11:46:57-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1342,114 +1378,114 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI2" t="s" s="36">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$34</formula1>
+      <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$12</formula1>
+      <formula1>'analyte_class'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1458,7 +1494,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1533,10 +1569,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1554,10 +1590,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1575,12 +1611,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1598,18 +1634,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -1627,12 +1663,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1656,30 +1692,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -1689,7 +1725,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1967,6 +2003,22 @@
         <v>71</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1974,7 +2026,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1982,98 +2034,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2091,12 +2167,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2114,178 +2190,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2295,7 +2371,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2303,410 +2379,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>247</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2724,42 +2808,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2777,26 +2861,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2814,18 +2898,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/geomx-ngs/latest/geomx-ngs.xlsx
+++ b/geomx-ngs/latest/geomx-ngs.xlsx
@@ -141,11 +141,13 @@
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>(Required) For Visium, this is the area of spots that was covered by tissue
-within the captured area, not the total possible captured area which is fixed.
-For GeoMx this would be the area of the AOI being captured. For HiFi this is the
-summed area of the ROIs in a single flowcell lane. For CosMx, Xenium and
-Resolve, this is the area of the FOV (aka ROI) region being captured.</t>
+        <t>For Visium, this is the area of spots that was covered by tissue within the
+captured area, not the total possible captured area which is fixed. For GeoMx
+this would be the area of the AOI being captured. For HiFi this is the summed
+area of the ROIs in a single flowcell lane. For CosMx and Resolve, this is the
+area of the FOV (aka ROI) region being captured. For Xenium this is the total
+area of the FOV regions (aka ROI) being captured. For Stereo-Seq this is the
+number of beads.</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
@@ -202,9 +204,10 @@
     </comment>
     <comment ref="Y1" authorId="1">
       <text>
-        <t>(Required) A label for the region of interest (ROI). For Xenium, Resolve and
-CosMx, this is the field of view (FOV) label. For GeoMx this can be found in the
-"Initial Dataset" spreadsheet (download from within Data Analysis Suite).</t>
+        <t>A label for the region of interest. For Resolve and CosMx, this is the field of
+view (FOV) label. For Xenium this is the ID of the region containing the
+analysis. For GeoMx this can be found in the "Initial Dataset" spreadsheet
+(download from within Data Analysis Suite).</t>
       </text>
     </comment>
     <comment ref="Z1" authorId="1">
@@ -1212,7 +1215,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-08-03T11:46:57-07:00</t>
+    <t>2024-10-17T13:01:54-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/geomx-ngs/latest/geomx-ngs.xlsx
+++ b/geomx-ngs/latest/geomx-ngs.xlsx
@@ -283,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="321">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -423,6 +423,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
@@ -447,6 +453,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>DART-FISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000396</t>
+  </si>
+  <si>
     <t>Resolve</t>
   </si>
   <si>
@@ -522,18 +534,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
-    <t>Nucleic acid and protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -546,13 +558,19 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
   </si>
   <si>
-    <t>Unsaturated Lipid</t>
+    <t>Unsaturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
   </si>
   <si>
-    <t>Saturated Lipid</t>
+    <t>Lipid + metabolite</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000401</t>
+  </si>
+  <si>
+    <t>Saturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
@@ -588,24 +606,24 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
   </si>
   <si>
-    <t>Endogenous fluorophores</t>
+    <t>Peptide</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
+  </si>
+  <si>
+    <t>Polysaccharide</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
+  </si>
+  <si>
+    <t>Endogenous fluorophore</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000131</t>
   </si>
   <si>
-    <t>Peptide</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
-  </si>
-  <si>
-    <t>Polysaccharide</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
@@ -708,6 +726,12 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>10x Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023672</t>
+  </si>
+  <si>
     <t>NanoString</t>
   </si>
   <si>
@@ -1215,7 +1239,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-10-17T13:01:54-07:00</t>
+    <t>2025-01-08T12:47:22-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1381,97 +1405,97 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2">
@@ -1479,22 +1503,22 @@
         <v>36</v>
       </c>
       <c r="AI2" t="s" s="36">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$15</formula1>
+      <formula1>'analyte_class'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
@@ -1572,10 +1596,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1593,10 +1617,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1614,12 +1638,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1637,18 +1661,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -1666,12 +1690,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1695,16 +1719,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2">
@@ -1712,13 +1736,13 @@
         <v>36</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1752,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2022,6 +2046,22 @@
         <v>75</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2029,7 +2069,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2037,122 +2077,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2170,12 +2218,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2185,7 +2233,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2193,178 +2241,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2382,418 +2438,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2811,42 +2867,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2864,26 +2920,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2901,18 +2957,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/geomx-ngs/latest/geomx-ngs.xlsx
+++ b/geomx-ngs/latest/geomx-ngs.xlsx
@@ -259,9 +259,9 @@
     </comment>
     <comment ref="AH1" authorId="1">
       <text>
-        <t>(Required) A semicolon separated list of non-shared files to be included in the
-dataset. The path assumes the files are located in the "TOP/non-global/"
-directory. For example, for the file is
+        <t>A semicolon separated list of non-shared files to be included in the dataset.
+The path assumes the files are located in the "TOP/non-global/" directory. For
+example, for the file is
 TOP/non-global/lab_processed/images/1-tissue-boundary.geojson the value of this
 field would be "./lab_processed/images/1-tissue-boundary.geojson". After ingest,
 these files will be copied to the appropriate locations within the respective
@@ -283,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="327">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -672,6 +672,12 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
+    <t>Vizgen</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026274</t>
+  </si>
+  <si>
     <t>Standard BioTools (Fluidigm)</t>
   </si>
   <si>
@@ -1029,6 +1035,12 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>MERSCOPE</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000404</t>
+  </si>
+  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -1071,6 +1083,12 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
+    <t>MERSCOPE Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026273</t>
+  </si>
+  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1239,7 +1257,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-01-08T12:47:22-08:00</t>
+    <t>2025-01-22T09:49:31-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1414,88 +1432,88 @@
         <v>116</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2">
@@ -1503,7 +1521,7 @@
         <v>36</v>
       </c>
       <c r="AI2" t="s" s="36">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -1518,10 +1536,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$24</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$54</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1596,10 +1614,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -1617,10 +1635,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -1661,18 +1679,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -1719,16 +1737,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2">
@@ -1736,13 +1754,13 @@
         <v>36</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2251,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2423,6 +2441,14 @@
         <v>162</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2430,7 +2456,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2438,418 +2464,434 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2867,42 +2909,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2920,26 +2962,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2957,18 +2999,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/geomx-ngs/latest/geomx-ngs.xlsx
+++ b/geomx-ngs/latest/geomx-ngs.xlsx
@@ -55,11 +55,11 @@
     <comment ref="C1" authorId="1">
       <text>
         <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurment and preparation. For example for an imaging assay, the protocol might
-include staining of a section through the creation of an OME-TIFF file. In this
-case the protocol would include any image processing steps required to create
-the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+procurement and preparation. For example for an imaging assay, the protocol
+might begin with staining of a section and finalize with the creation of an
+OME-TIFF file. In this case the protocol would include any image processing
+steps required to create the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -111,8 +111,8 @@
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acqusition instrument was last serviced by the
-vendor. This provides a metric for assessing drift in data capture.</t>
+        <t>The amount of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture.</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
@@ -283,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="359">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -369,10 +369,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
     <t>SIMS</t>
@@ -471,6 +471,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
     <t>MERFISH</t>
   </si>
   <si>
@@ -525,6 +531,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
+    <t>MS Lipidomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -636,40 +654,100 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
+    <t>Cytiva</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023581</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008452</t>
+  </si>
+  <si>
+    <t>Zeiss Microscopy</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023607</t>
+  </si>
+  <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
+  </si>
+  <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>NanoString</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023912</t>
+  </si>
+  <si>
+    <t>Element Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026453</t>
+  </si>
+  <si>
+    <t>Andor</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023609</t>
+  </si>
+  <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_010233</t>
+  </si>
+  <si>
+    <t>Ionpath</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023605</t>
+  </si>
+  <si>
     <t>In-House</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
   </si>
   <si>
-    <t>BGI Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024848</t>
-  </si>
-  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023911</t>
   </si>
   <si>
-    <t>Cytiva</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023581</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008452</t>
-  </si>
-  <si>
-    <t>Zeiss Microscopy</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023607</t>
+    <t>Singular Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026683</t>
   </si>
   <si>
     <t>Vizgen</t>
@@ -684,12 +762,6 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
-    <t>GE Healthcare</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_025461</t>
-  </si>
-  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -702,18 +774,6 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
-    <t>Leica Microsystems</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008960</t>
-  </si>
-  <si>
-    <t>Akoya Biosciences</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023774</t>
-  </si>
-  <si>
     <t>Evident Scientific (Olympus)</t>
   </si>
   <si>
@@ -738,48 +798,18 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>NanoString</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023912</t>
-  </si>
-  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_017105</t>
   </si>
   <si>
-    <t>Andor</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023609</t>
-  </si>
-  <si>
-    <t>Huron Digital Pathology</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024996</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_010233</t>
-  </si>
-  <si>
     <t>Motic</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024856</t>
   </si>
   <si>
-    <t>Ionpath</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023605</t>
-  </si>
-  <si>
     <t>acquisition_instrument_model</t>
   </si>
   <si>
@@ -831,6 +861,12 @@
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>timsTOF Ultra 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026541</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -849,12 +885,30 @@
     <t>https://identifiers.org/RRID:SCR_024847</t>
   </si>
   <si>
+    <t>timsTOF Pro</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026544</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
   </si>
   <si>
+    <t>AVITI</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026452</t>
+  </si>
+  <si>
+    <t>timsTOF Pro 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026545</t>
+  </si>
+  <si>
     <t>Q Exactive UHMR</t>
   </si>
   <si>
@@ -867,12 +921,24 @@
     <t>https://identifiers.org/RRID:SCR_020565</t>
   </si>
   <si>
+    <t>timsTOF SCP</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026542</t>
+  </si>
+  <si>
     <t>Zyla 4.2 sCMOS</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
+    <t>Helios</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019916</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -885,12 +951,30 @@
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
+    <t>timsTOF Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026540</t>
+  </si>
+  <si>
     <t>BZ-X800</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023617</t>
   </si>
   <si>
+    <t>CyTOF 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026551</t>
+  </si>
+  <si>
+    <t>G4X Spatial Sequencer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026684</t>
+  </si>
+  <si>
     <t>NextSeq 500</t>
   </si>
   <si>
@@ -915,6 +999,12 @@
     <t>https://identifiers.org/RRID:SCR_024568</t>
   </si>
   <si>
+    <t>CyTOF XT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026344</t>
+  </si>
+  <si>
     <t>NanoZoomer-SQ</t>
   </si>
   <si>
@@ -957,6 +1047,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>timsTOF HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026543</t>
+  </si>
+  <si>
     <t>PhenoImager Fusion</t>
   </si>
   <si>
@@ -1257,7 +1353,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-01-22T09:49:31-08:00</t>
+    <t>2025-04-24T10:52:38-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1423,97 +1519,97 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>318</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2">
@@ -1521,13 +1617,13 @@
         <v>36</v>
       </c>
       <c r="AI2" t="s" s="36">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$38</formula1>
+      <formula1>'dataset_type'!$A$1:$A$41</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1536,10 +1632,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$24</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$54</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1614,10 +1710,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -1635,10 +1731,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -1656,12 +1752,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1679,18 +1775,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>308</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>310</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -1708,12 +1804,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1737,16 +1833,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>325</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2">
@@ -1754,13 +1850,13 @@
         <v>36</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>326</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -1770,7 +1866,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2078,6 +2174,30 @@
       </c>
       <c r="B38" t="s" s="0">
         <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2095,130 +2215,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2236,12 +2356,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2251,7 +2371,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2259,194 +2379,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>164</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2456,7 +2592,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2464,434 +2600,530 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>273</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2909,42 +3141,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>277</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>279</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>281</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -2962,26 +3194,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>281</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2999,18 +3231,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>293</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>295</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/geomx-ngs/latest/geomx-ngs.xlsx
+++ b/geomx-ngs/latest/geomx-ngs.xlsx
@@ -283,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="363">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1023,6 +1023,18 @@
     <t>https://identifiers.org/RRID:SCR_021660</t>
   </si>
   <si>
+    <t>timsTOF FleX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026925</t>
+  </si>
+  <si>
+    <t>timsTOF FleX MALDI-2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023615</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
@@ -1092,7 +1104,7 @@
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_023615</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000433</t>
   </si>
   <si>
     <t>TissueScope LE Slide Scanner</t>
@@ -1353,7 +1365,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-04-24T10:52:38-07:00</t>
+    <t>2025-05-12T10:17:32-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1531,85 +1543,85 @@
         <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2">
@@ -1617,7 +1629,7 @@
         <v>36</v>
       </c>
       <c r="AI2" t="s" s="36">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -1635,7 +1647,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1710,10 +1722,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1731,10 +1743,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1775,18 +1787,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -1833,16 +1845,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2">
@@ -1850,13 +1862,13 @@
         <v>36</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -2592,7 +2604,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3048,26 +3060,26 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>150</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>291</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60">
@@ -3124,6 +3136,22 @@
       </c>
       <c r="B66" t="s" s="0">
         <v>305</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3141,42 +3169,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3194,26 +3222,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3231,18 +3259,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/geomx-ngs/latest/geomx-ngs.xlsx
+++ b/geomx-ngs/latest/geomx-ngs.xlsx
@@ -34,247 +34,267 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
-section or suspension) used to perform this assay. For example, for a RNAseq
-assay, the parent would be the suspension, whereas, for one of the imaging
-assays, the parent would be the tissue section. If an assay comes from multiple
-parent samples then this should be a comma separated list. Example:
-HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
+block, section, or suspension) used to perform the assay. For instance, in an
+RNAseq assay, the parent sample would be the suspension, while in imaging
+assays, it would be the tissue section. If the assay is derived from multiple
+parent samples, this field should contain a comma-separated list of identifiers.
+Example: HBM386.ZGKG.235, HBM672.MKPK.442</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>An internal field labs can use it to add whatever ID(s) they want or need for
-dataset validation and tracking. This could be a single ID (e.g.,
-"Visium_9OLC_A4_S1") or a delimited list of IDs (e.g., “9OL; 9OLC.A2;
-Visium_9OLC_A4_S1”). This field will not be accessible to anyone outside of the
-consortium and no effort will be made to check if IDs provided by one data
-provider are also used by another.</t>
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
+is used to reference an external metadata record that may be maintained
+independently, enabling traceability and supporting provenance tracking.
+Example: Visium_9OLC_A4_S1</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might begin with staining of a section and finalize with the creation of an
-OME-TIFF file. In this case the protocol would include any image processing
-steps required to create the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
+procedures used for sample procurement and preparation. For example, in the case
+of an imaging assay, the protocol may start with tissue section staining and end
+with the generation of an OME-TIFF file. The documented protocol should also
+include any image processing steps involved in producing the final OME-TIFF.
+Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) The specific type of dataset being produced.</t>
+        <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) Analytes are the target molecules being measured with the assay.</t>
+        <t>(Required) The analyte class which is the target molecule that the assay is
+measuring. Example: DNA</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) Specifies whether or not a specific molecule(s) is/are targeted for
-detection/measurement by the assay ("Yes" or "No"). The CODEX analyte is
-protein.</t>
+        <t>(Required) Indicates whether a specific molecule or set of molecules is targeted
+for detection or measurement by the assay. Example: Yes</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>(Required) An acquisition instrument is the device that contains the signal
-detection hardware and signal processing software. Assays generate signals such
-as light of various intensities or color or signals representing the molecular
-mass.</t>
+        <t>(Required) The company that manufactures or supplies the acquisition instrument.
+An acquisition instrument is a device equipped with signal detection hardware
+and signal processing software. It captures signals produced by assays, such as
+variations in light intensity or color, or signals corresponding to molecular
+mass. If the instrument was custom-built or developed internally, enter
+"In-House". Example: Illumina</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
       <text>
-        <t>(Required) Manufacturers of an acquisition instrument may offer various versions
-(models) of that instrument with different features or sensitivities.
-Differences in features or sensitivities may be relevant to processing or
-interpretation of the data.</t>
+        <t>(Required) The specific model of the acquisition instrument, as manufacturers
+often offer various versions with differing features or sensitivities. These
+differences may be relevant to the processing or interpretation of the data. If
+the instrument was custom-built or developed internally, enter "In-House". If
+the model is unknown, enter "Unknown". Example: HiSeq 4000</t>
       </text>
     </comment>
     <comment ref="I1" authorId="1">
       <text>
-        <t>(Required) How long was the source material stored, prior to this sample being
-processed? For assays applied to tissue sections, this would be how long the
-tissue section (e.g., slide) was stored, prior to the assay beginning (e.g.,
-imaging). For assays applied to suspensions such as sequencing, this would be
-how long the suspension was stored before library construction began.</t>
+        <t>(Required) The length of time the sample was stored prior to processing it. For
+assays performed on tissue sections, this refers to how long the tissue section
+(e.g., slide) was stored before the assay began (e.g., imaging). For assays
+performed on suspensions, such as sequencing, it refers to how long the
+suspension was stored before library construction started. Example: 12</t>
       </text>
     </comment>
     <comment ref="J1" authorId="1">
       <text>
-        <t>(Required) The time duration unit of measurement</t>
+        <t>(Required) The unit of measurement used to specify the source storage duration
+value. Example: hour</t>
       </text>
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acquisition instrument was last serviced or
-calibrated. This provides a metric for assessing drift in data capture.</t>
+        <t>The length of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture. Example:
+10</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
       <text>
-        <t>The time unit of measurement</t>
+        <t>The unit of measurement used to specify the time since acquisition instrument
+calibration value. Example: month</t>
       </text>
     </comment>
     <comment ref="M1" authorId="1">
       <text>
-        <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "./extras/contributors.tsv" or "./contributors.tsv"). This is an
-internal metadata field that is just used for ingest.</t>
+        <t>(Required) The name of the file containing the ORCID IDs for all contributors to
+this dataset. Example: ./contributors.csv</t>
       </text>
     </comment>
     <comment ref="N1" authorId="1">
       <text>
-        <t>(Required) The top level directory containing the raw and/or processed data. For
-a single dataset upload this might be "." where as for a data upload containing
-multiple datasets, this would be the directory name for the respective dataset.
-For instance, if the data is within a directory called "TEST001-RK" use syntax
-"./TEST001-RK" for this field. If there are multiple directory levels, use the
-format "./TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
-single dataset's data is stored. This is an internal metadata field that is just
-used for ingest.</t>
+        <t>(Required) The top-level directory containing the raw and/or processed data. For
+a single dataset upload, this might be represented as ".", whereas for a data
+upload containing multiple datasets, this would be the directory name for the
+respective dataset. For example, if the data is within a directory named
+"TEST001-RK", use the syntax "./TEST001-RK" for this field. If there are
+multiple directory levels, use the format "./TEST001-RK/Run1/Pass2", where
+"Pass2" is the subdirectory where the single dataset's data is stored. This is
+an internal metadata field used solely for data ingestion. Example: ./TEST001-RK</t>
       </text>
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>For Visium, this is the area of spots that was covered by tissue within the
-captured area, not the total possible captured area which is fixed. For GeoMx
-this would be the area of the AOI being captured. For HiFi this is the summed
-area of the ROIs in a single flowcell lane. For CosMx and Resolve, this is the
-area of the FOV (aka ROI) region being captured. For Xenium this is the total
-area of the FOV regions (aka ROI) being captured. For Stereo-Seq this is the
-number of beads.</t>
+        <t>(Required) The mapped area value, which refers to the specific area covered or
+captured in various assays. For Visium, it is the area of spots covered by
+tissue within the captured area, excluding the total possible captured area. For
+GeoMx, it refers to the area of the AOI being captured. In HiFi, it is the
+summed area of the ROIs in a single flowcell lane. For CosMx and Resolve, it
+indicates the area of the FOV (also known as ROI) region being captured. For
+Xenium, it is the total area of the FOV regions (also known as ROI) being
+captured. For Stereo-Seq, this value represents the number of beads. Example:
+42.25</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>(Required) The unit of measurement for the mapping area. For Visium and GeoMx
-this is typically um^2.</t>
+        <t>(Required) The unit of measurement for the mapped area value. If mapping area is
+not specified, this field may be left blank. Example: um^2</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) A unique ID denoting the slide used. This allows users the ability to
+        <t>(Required) The unique identifier assigned to each slide, enabling users to
 determine which tissue sections were processed together on the same slide. It is
-recommended that data providers prefix the ID with the center name, to prevent
-values overlapping across centers.</t>
+recommended that data providers prefix the ID with the center name to prevent
+overlapping values across different centers. Example: VAN0071-PA-1-1_AF</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>(Required) The number of distinct fluorescent channels in the image.</t>
+        <t>(Required) The number of distinct fluorescent channels present in the image.
+Example: 3</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
       <text>
-        <t>(Required) Will normally be 100 degrees Celsius for RNA assays, and 80 degrees
-Celsius for protein assays.</t>
+        <t>(Required) The incubation temperature required for target retrieval, which is
+typically 100 degrees Celsius for RNA assays and 80 degrees Celsius for protein
+assays. Example: 100</t>
       </text>
     </comment>
     <comment ref="T1" authorId="1">
       <text>
         <t>(Required) The duration for which a sample is exposed to a target retrieval
-solution.</t>
+solution. Example: 15</t>
       </text>
     </comment>
     <comment ref="U1" authorId="1">
       <text>
-        <t>(Required) The units for target retrieval incubation time value.</t>
+        <t>(Required) The unit of measurement for the target retrieval incubation time
+value. If no incubation time is specified, this field may be left blank.
+Example: minute</t>
       </text>
     </comment>
     <comment ref="V1" authorId="1">
       <text>
-        <t>The amount or concentration of the enzyme Proteinase K within a sample (in
-ug/ml).</t>
+        <t>The concentration of the enzyme Proteinase K within a sample, measured in
+micrograms per milliliter (ug/ml). Example: 10</t>
       </text>
     </comment>
     <comment ref="W1" authorId="1">
       <text>
-        <t>The duration for which a sample is exposed to Proteinase K.</t>
+        <t>The duration for which a sample is incubated with Proteinase K. Example: 15</t>
       </text>
     </comment>
     <comment ref="X1" authorId="1">
       <text>
-        <t>The units for proteinaseK incubation time value.</t>
+        <t>The unit of measurement for the proteinaseK incubation time value. If no
+incubation time is specified, this field may be left blank. Example: minute</t>
       </text>
     </comment>
     <comment ref="Y1" authorId="1">
       <text>
-        <t>A label for the region of interest. For Resolve and CosMx, this is the field of
-view (FOV) label. For Xenium this is the ID of the region containing the
-analysis. For GeoMx this can be found in the "Initial Dataset" spreadsheet
-(download from within Data Analysis Suite).</t>
+        <t>(Required) The label for the region of interest (ROI). For Resolve and CosMx,
+this corresponds to the field of view (FOV) label. In the case of Xenium, it
+refers to the ID of the region containing the analysis. For GeoMx, this
+information can be located in the "Initial Dataset" spreadsheet, which can be
+downloaded from within the Data Analysis Suite. Example: Decidua</t>
       </text>
     </comment>
     <comment ref="Z1" authorId="1">
       <text>
-        <t>(Required) Was the image segmented. For GeoMx this refers to whether
-segmentation was used to split ROIs (regions of interest) into AOIs (areas of
-interest).</t>
+        <t>(Required) Indicates whether ROI (Region of Interest) segmentation was performed
+on the image. For GeoMx, this refers to the use of segmentation to divide ROIs
+into AOIs (Areas of Interest). Answer with "Yes" or "No" value. Example: Yes</t>
       </text>
     </comment>
     <comment ref="AA1" authorId="1">
       <text>
-        <t>The method of segmentation that was applied in a GeoMx assay. If an overlay was
-used the overlay image needs to be included in the dataset upload.</t>
+        <t>The segmentation strategy employed in a GeoMx assay. If an overlay was utilized,
+ensure that the overlay image is included in the dataset upload. Example:
+Automated segmentation</t>
       </text>
     </comment>
     <comment ref="AB1" authorId="1">
       <text>
-        <t>The overarching anatomical structure.</t>
+        <t>The label for the overarching anatomical structure. If the anatomical structure
+is not applicable or not specified, this field may be left blank. Example:
+Kidney</t>
       </text>
     </comment>
     <comment ref="AC1" authorId="1">
       <text>
-        <t>The ontology ID for the parent structure. Typically this would be an UBERON ID.</t>
+        <t>The ontology ID associated with the anatomical structure, typically represented
+by an UBERON ID. Example: UBERON:0002113</t>
       </text>
     </comment>
     <comment ref="AD1" authorId="1">
       <text>
-        <t>(Required) State what cell type(s) or functional tissue unit was targeted in
-this ROI/AOI.</t>
+        <t>(Required) The label for the targeted entity, indicating the specific cell
+type(s) or functional tissue unit that was targeted within this Region of
+Interest (ROI) or Area of Interest (AOI). Example: ROI-001</t>
       </text>
     </comment>
     <comment ref="AE1" authorId="1">
       <text>
-        <t>The ontology ID for the targeted entity.</t>
+        <t>The ontology ID associated with the targeted entity. If no specific entity is
+targeted, this field may be left blank. Example: CL:0000540</t>
       </text>
     </comment>
     <comment ref="AF1" authorId="1">
       <text>
-        <t>(Required) This is the ID for the area of interest (AOI) in a GeoMx dataset.
-From "Initial Dataset" spreadsheet (download from within Data Analysis Suite),
-e.g. 9a828e39-43d8-4051-9bcc-581a520a85d4.</t>
+        <t>(Required) The unique identifier for the area of interest (AOI) within a GeoMx
+dataset. This ID can be found in the "Initial Dataset" spreadsheet, which can be
+downloaded from the Data Analysis Suite. Example:
+9a828e39-43d8-4051-9bcc-581a520a85d4</t>
       </text>
     </comment>
     <comment ref="AG1" authorId="1">
       <text>
-        <t>(Required) Is the sequencing reaction run in replicate, "Yes" or "No". If "Yes",
-FASTQ files in dataset need to be merged.</t>
+        <t>(Required) Indicates whether the sequencing reaction was run in replicate. If
+"Yes," the corresponding FASTQ files in the dataset should be merged for
+analysis. Example: Yes</t>
       </text>
     </comment>
     <comment ref="AH1" authorId="1">
       <text>
-        <t>A semicolon separated list of non-shared files to be included in the dataset.
-The path assumes the files are located in the "TOP/non-global/" directory. For
-example, for the file is
-TOP/non-global/lab_processed/images/1-tissue-boundary.geojson the value of this
-field would be "./lab_processed/images/1-tissue-boundary.geojson". After ingest,
-these files will be copied to the appropriate locations within the respective
-dataset directory tree. This field is used for internal HuBMAP processing.
-Examples for GeoMx and PhenoCycler are provided in the File Locations
-documentation:
-https://docs.google.com/document/d/1n2McSs9geA9Eli4QWQaB3c9R3wo5d5U1Xd57DWQfN5Q/edit#heading=h.1u82i4axggee</t>
+        <t>Specifies a semicolon-separated list of non-global files that are to be included
+in the dataset. The file paths assume that the files are located in the
+"TOP/non-global/" directory. For instance, if the file is located at
+TOP/non-global/lab_processed/images/1-tissue-boundary.geojson, the value for
+this field would be "./lab_processed/images/1-tissue-boundary.geojson". Once
+ingested, these files will be copied to their appropriate locations within the
+respective dataset directory tree. This field is intended for internal HuBMAP
+processing. Examples for GeoMx and PhenoCycler are provided in the File
+Locations documentation:
+https://docs.google.com/document/d/1n2McSs9geA9Eli4QWQaB3c9R3wo5d5U1Xd57DWQfN5Q/edit#heading=h.1u82i4axggee
+Example: ./lab_processed/images/1-tissue-boundary.geojson</t>
       </text>
     </comment>
     <comment ref="AI1" authorId="1">
       <text>
-        <t>(Required) The string that serves as the definitive identifier for the metadata
-schema version and is readily interpretable by computers for data validation and
+        <t>(Required) The unique string identifier for the metadata specification version,
+which is easily interpretable by computers for purposes of data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
@@ -283,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="406">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -309,34 +329,172 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
+    <t>COMET</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000458</t>
+  </si>
+  <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
+  </si>
+  <si>
+    <t>Confocal</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+  </si>
+  <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
+  </si>
+  <si>
+    <t>Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
+  </si>
+  <si>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
+    <t>CosMx Transcriptomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
+  </si>
+  <si>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
+  </si>
+  <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
+    <t>Visium HD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000451</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
+    <t>Olink</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
+  </si>
+  <si>
     <t>MIBI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
-    <t>Visium (no probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
-  </si>
-  <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
   </si>
   <si>
-    <t>Confocal</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000440</t>
   </si>
   <si>
     <t>Xenium</t>
@@ -345,36 +503,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>Stereo-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000434</t>
-  </si>
-  <si>
-    <t>Visium (with probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
-  </si>
-  <si>
-    <t>Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
-  </si>
-  <si>
-    <t>CosMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
-  </si>
-  <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -405,16 +533,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+    <t>Pixel-seqV2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000450</t>
   </si>
   <si>
     <t>MALDI</t>
@@ -423,30 +545,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
-    <t>seqFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
-  </si>
-  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>ATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
-  </si>
-  <si>
-    <t>CosMx Proteomics</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -477,18 +581,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
-    <t>Singular Genomics G4X</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
     <t>LC-MS</t>
   </si>
   <si>
@@ -501,12 +593,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
     <t>GeoMx (nCounter)</t>
   </si>
   <si>
@@ -519,34 +605,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>MS Lipidomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
-    <t>CyTOF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+    <t>MPLEx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
   </si>
   <si>
     <t>analyte_class</t>
@@ -690,6 +758,12 @@
     <t>https://identifiers.org/RRID:SCR_027007</t>
   </si>
   <si>
+    <t>3DHISTECH</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027042</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -804,12 +878,24 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>Cytek Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027071</t>
+  </si>
+  <si>
     <t>10x Genomics</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
+    <t>Microscopes International</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027094</t>
+  </si>
+  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
@@ -843,6 +929,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Pannoramic MIDI II Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024834</t>
+  </si>
+  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -951,6 +1043,12 @@
     <t>https://identifiers.org/RRID:SCR_019916</t>
   </si>
   <si>
+    <t>uScopeHXII-20</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027101</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -1029,6 +1127,12 @@
     <t>https://identifiers.org/RRID:SCR_016381</t>
   </si>
   <si>
+    <t>Axio Zoom.V16</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027090</t>
+  </si>
+  <si>
     <t>Digital Spatial Profiler</t>
   </si>
   <si>
@@ -1065,6 +1169,12 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>Cytek Northern Lights</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027072</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -1155,6 +1265,9 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>https://identifiers.org/RRID:SCR_027323</t>
+  </si>
+  <si>
     <t>MERSCOPE</t>
   </si>
   <si>
@@ -1179,6 +1292,18 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>solariX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027095</t>
+  </si>
+  <si>
+    <t>Panoramic 150 Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027467</t>
+  </si>
+  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1191,6 +1316,12 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
+    <t>Biomark HD</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_022658</t>
+  </si>
+  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -1215,6 +1346,12 @@
     <t>https://identifiers.org/RRID:SCR_020927</t>
   </si>
   <si>
+    <t>Juno System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027198</t>
+  </si>
+  <si>
     <t>Q Exactive HF</t>
   </si>
   <si>
@@ -1377,7 +1514,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-06-04T14:01:16-07:00</t>
+    <t>2025-10-22T11:05:35-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1543,111 +1680,111 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>358</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="AI2" t="s" s="36">
-        <v>359</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$42</formula1>
+      <formula1>'dataset_type'!$A$1:$A$50</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1656,10 +1793,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$27</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$77</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1734,10 +1871,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>325</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -1755,10 +1892,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>325</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -1776,12 +1913,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1799,18 +1936,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>348</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>350</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -1828,12 +1965,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1857,30 +1994,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>365</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>366</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -1890,7 +2027,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2230,6 +2367,70 @@
       </c>
       <c r="B42" t="s" s="0">
         <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2247,130 +2448,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2388,12 +2589,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2403,7 +2604,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2411,218 +2612,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>178</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2632,7 +2857,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2640,546 +2865,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>185</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>187</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>193</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>199</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>203</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>205</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>209</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>221</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>223</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>225</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>227</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>239</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>241</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>245</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>247</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>249</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>251</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>253</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>255</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>257</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>259</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>263</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>265</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>269</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>271</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>273</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>275</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>277</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>279</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>281</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>283</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>285</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>287</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>289</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>291</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>293</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>295</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>153</v>
+        <v>318</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>154</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>296</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>297</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>301</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>303</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>304</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>305</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>307</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>311</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>313</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3197,42 +3494,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>319</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>321</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>323</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>325</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3250,26 +3547,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>319</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>321</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>323</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3287,18 +3584,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>333</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>335</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/geomx-ngs/latest/geomx-ngs.xlsx
+++ b/geomx-ngs/latest/geomx-ngs.xlsx
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="408">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -371,6 +371,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
+    <t>Virtual Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000473</t>
+  </si>
+  <si>
     <t>DBiT-seq</t>
   </si>
   <si>
@@ -626,18 +632,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
-    <t>Nucleic acid + protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>RNA + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000474</t>
+  </si>
+  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -1514,7 +1520,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-22T11:05:35-07:00</t>
+    <t>2025-11-19T14:43:22-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1680,111 +1686,111 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AI2" t="s" s="36">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="21">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$50</formula1>
+      <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1871,10 +1877,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -1892,10 +1898,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -1913,12 +1919,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1936,18 +1942,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -1965,12 +1971,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1994,30 +2000,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -2027,7 +2033,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2431,6 +2437,14 @@
       </c>
       <c r="B50" t="s" s="0">
         <v>103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2448,130 +2462,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2589,12 +2603,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2612,242 +2626,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2865,618 +2879,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3494,42 +3508,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3547,26 +3561,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3584,18 +3598,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/geomx-ngs/latest/geomx-ngs.xlsx
+++ b/geomx-ngs/latest/geomx-ngs.xlsx
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="410">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -632,6 +632,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -1520,7 +1526,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-11-19T14:43:22-08:00</t>
+    <t>2025-11-20T09:44:21-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1689,94 +1695,94 @@
         <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2">
@@ -1784,7 +1790,7 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="36">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -1793,7 +1799,7 @@
       <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$16</formula1>
+      <formula1>'analyte_class'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1877,10 +1883,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -1898,10 +1904,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -1919,12 +1925,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1942,18 +1948,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -1971,12 +1977,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2000,16 +2006,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2">
@@ -2017,13 +2023,13 @@
         <v>74</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -2454,7 +2460,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2586,6 +2592,14 @@
       </c>
       <c r="B16" t="s" s="0">
         <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2603,12 +2617,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2626,242 +2640,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2879,474 +2893,474 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60">
@@ -3354,143 +3368,143 @@
         <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3508,42 +3522,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3561,26 +3575,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3598,18 +3612,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
